--- a/data/Subset1_WithDialogActs/Fraction as Number 4_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Fraction as Number 4_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -855,12 +855,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -931,12 +931,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -969,12 +969,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1083,12 +1083,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1273,12 +1273,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1315,12 +1315,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1923,12 +1923,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1999,12 +1999,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2155,12 +2155,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
